--- a/trunk/Business Game/Reporte sobre racionais das decisões do TOPSIM - Sergio_Processos.xlsx
+++ b/trunk/Business Game/Reporte sobre racionais das decisões do TOPSIM - Sergio_Processos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="210" windowWidth="18720" windowHeight="7815"/>
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Processos por Area'!$A$2:$C$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rodadas!$A$1:$K$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1247,9 +1247,6 @@
     <t>Objetivo principal da decisão foi reduzir duração (tempo), que resultou em contratação de empresa de engenharia (aquisições).</t>
   </si>
   <si>
-    <t>A estruturação de um PMO é parte da estratégia de gerenciamento do proejto e deve constar no plano de gerenciamento do projeto (integração). Além da estruturação dos planos de gerenciamento individuais de área de conhecimento, ressalta-se a necessidade de contratação de pessoas (RH).</t>
-  </si>
-  <si>
     <t>O objetivo principal desta decisão foi reduzir duração (tempo), mas há também necessidade de garantir o planejamento da qualidade. A execução das horas extras deverá ser discutida  com a empresa de engenharia durante a contratação e ou execução do contrato.</t>
   </si>
   <si>
@@ -1261,9 +1258,6 @@
   <si>
     <t>4.2 Desenvolver o plano de gerenciamento do projeto;
 9.1 Desenvolver o plano de recursos humanos;</t>
-  </si>
-  <si>
-    <t>O objtivo principal desta decisão foi garantir tecnologia (escopo) e qualidade produto (qualidade).</t>
   </si>
   <si>
     <t>5.1 Coletar requisitos;
@@ -1289,9 +1283,6 @@
 11. Riscos;</t>
   </si>
   <si>
-    <t>Este pacote possui uma relação grande com os processos de escopo, porém podemos ressaltar nesta decisão o processo de identificar riscos associados à utilização de trabalhadores jovens e com pouca experiência, que além de outras ações específicas como parte do planejamento de resposta aos riscos, pode requerer uma atenção especial no planejamento dos recuros e gerenciamento dda equipe do projeto (tipo de liderança adequada, etc.).</t>
-  </si>
-  <si>
     <t>5. Escopo;
 8. Qualidade;
 11. Riscos;</t>
@@ -1303,9 +1294,6 @@
 11.2 Identificar os riscos;</t>
   </si>
   <si>
-    <t>A decisão deste pacote de trabalho está associada à tecnologia aplicada aoproduto (escopo), seu nível de qualidade (qualidade) e os riscos associados ao uso desta tecnologia (riscos).</t>
-  </si>
-  <si>
     <t>11. Riscos;
 12. Aquisições;</t>
   </si>
@@ -1315,13 +1303,25 @@
   </si>
   <si>
     <t>A decisão deste pacote de trabalho envolve a contratação de uma empresa. Os processos da área de risco são utilizados como entrada no processo de planejar as aquisições.</t>
+  </si>
+  <si>
+    <t>A estruturação de um PMO é parte da estratégia de gerenciamento do projeto e deve constar no plano de gerenciamento do projeto (integração). Além da estruturação dos planos de gerenciamento individuais de área de conhecimento, ressalta-se a necessidade de contratação de pessoas (RH).</t>
+  </si>
+  <si>
+    <t>O objetivo principal desta decisão foi garantir tecnologia (escopo) e qualidade produto (qualidade).</t>
+  </si>
+  <si>
+    <t>Este pacote possui uma relação grande com os processos de escopo, porém podemos ressaltar nesta decisão o processo de identificar riscos associados à utilização de trabalhadores jovens e com pouca experiência, que além de outras ações específicas como parte do planejamento de resposta aos riscos, pode requerer uma atenção especial no planejamento dos recuros e gerenciamento da equipe do projeto (tipo de liderança adequada, etc.).</t>
+  </si>
+  <si>
+    <t>A decisão deste pacote de trabalho está associada à tecnologia aplicada ao produto (escopo), seu nível de qualidade (qualidade) e os riscos associados ao uso desta tecnologia (riscos).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1723,11 +1723,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1747,11 +1750,8 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2266,7 +2266,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2301,7 +2300,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2477,15 +2475,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="10" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="10" hidden="1" customWidth="1"/>
@@ -2502,7 +2500,7 @@
     <col min="14" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="47.25">
       <c r="A1" s="9" t="s">
         <v>114</v>
       </c>
@@ -2543,7 +2541,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="204" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="204" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2584,7 +2582,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="120">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2612,10 +2610,10 @@
         <v>271</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>178</v>
@@ -2625,7 +2623,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="29" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="29" customFormat="1" ht="90">
       <c r="A4" s="25">
         <v>2</v>
       </c>
@@ -2648,13 +2646,13 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K4" s="27" t="s">
         <v>179</v>
@@ -2662,7 +2660,7 @@
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
     </row>
-    <row r="5" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="75">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2690,10 +2688,10 @@
         <v>279</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>180</v>
@@ -2703,7 +2701,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="168" customHeight="1">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2728,13 +2726,13 @@
         <v>3</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K6" s="22" t="s">
         <v>181</v>
@@ -2746,7 +2744,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="90">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -2771,13 +2769,13 @@
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K7" s="22" t="s">
         <v>182</v>
@@ -2789,7 +2787,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="29" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="29" customFormat="1" ht="90">
       <c r="A8" s="25">
         <v>2</v>
       </c>
@@ -2812,13 +2810,13 @@
         <v>0</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K8" s="27" t="s">
         <v>183</v>
@@ -2826,7 +2824,7 @@
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
     </row>
-    <row r="9" spans="1:13" s="29" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="29" customFormat="1" ht="105">
       <c r="A9" s="25">
         <v>2</v>
       </c>
@@ -2861,7 +2859,7 @@
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
     </row>
-    <row r="10" spans="1:13" s="29" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="29" customFormat="1" ht="45">
       <c r="A10" s="25">
         <v>2</v>
       </c>
@@ -2889,14 +2887,14 @@
       <c r="I10" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="30" t="s">
+      <c r="J10" s="31"/>
+      <c r="K10" s="39" t="s">
         <v>185</v>
       </c>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
     </row>
-    <row r="11" spans="1:13" s="29" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="29" customFormat="1" ht="135">
       <c r="A11" s="25">
         <v>2</v>
       </c>
@@ -2935,7 +2933,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="97.5" customHeight="1">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -2976,7 +2974,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="29" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="29" customFormat="1" ht="78" customHeight="1">
       <c r="A13" s="25">
         <v>2</v>
       </c>
@@ -3011,7 +3009,7 @@
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
     </row>
-    <row r="14" spans="1:13" s="29" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="29" customFormat="1" ht="120">
       <c r="A14" s="25">
         <v>2</v>
       </c>
@@ -3047,7 +3045,7 @@
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
     </row>
-    <row r="15" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="105">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -3086,7 +3084,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="105">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -3127,7 +3125,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="60">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -3164,7 +3162,7 @@
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
     </row>
-    <row r="18" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="105">
       <c r="A18" s="2">
         <v>3</v>
       </c>
@@ -3205,7 +3203,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="105">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -3246,7 +3244,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="105">
       <c r="A20" s="2">
         <v>2</v>
       </c>
@@ -3283,7 +3281,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="75">
       <c r="A21" s="2">
         <v>3</v>
       </c>
@@ -3324,7 +3322,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="75">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -3365,7 +3363,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="105">
       <c r="A23" s="2">
         <v>3</v>
       </c>
@@ -3404,7 +3402,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="29" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="29" customFormat="1" ht="45">
       <c r="A24" s="25">
         <v>3</v>
       </c>
@@ -3437,7 +3435,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="75">
       <c r="A25" s="2">
         <v>3</v>
       </c>
@@ -3478,7 +3476,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="75">
       <c r="A26" s="2">
         <v>5</v>
       </c>
@@ -3515,7 +3513,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:14" s="29" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="29" customFormat="1" ht="75">
       <c r="A27" s="25">
         <v>3</v>
       </c>
@@ -3550,7 +3548,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="105">
       <c r="A28" s="2">
         <v>3</v>
       </c>
@@ -3587,7 +3585,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="90">
       <c r="A29" s="2">
         <v>3</v>
       </c>
@@ -3629,7 +3627,7 @@
       </c>
       <c r="N29" s="23"/>
     </row>
-    <row r="30" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="105">
       <c r="A30" s="2">
         <v>3</v>
       </c>
@@ -3667,7 +3665,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="23"/>
     </row>
-    <row r="31" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="75">
       <c r="A31" s="2">
         <v>5</v>
       </c>
@@ -3704,7 +3702,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="60">
       <c r="A32" s="2">
         <v>4</v>
       </c>
@@ -3739,7 +3737,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="78" customHeight="1">
       <c r="A33" s="2">
         <v>5</v>
       </c>
@@ -3770,7 +3768,7 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="60">
       <c r="A34" s="2">
         <v>5</v>
       </c>
@@ -3805,7 +3803,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="60">
       <c r="A35" s="2">
         <v>5</v>
       </c>
@@ -3836,11 +3834,11 @@
       <c r="L35" s="5">
         <v>1</v>
       </c>
-      <c r="M35" s="31" t="s">
+      <c r="M35" s="30" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="60">
       <c r="A36" s="2">
         <v>5</v>
       </c>
@@ -3875,7 +3873,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="45">
       <c r="A37" s="2">
         <v>5</v>
       </c>
@@ -3908,7 +3906,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="45">
       <c r="A38" s="2">
         <v>5</v>
       </c>
@@ -3941,7 +3939,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="60">
       <c r="A39" s="2">
         <v>5</v>
       </c>
@@ -3976,7 +3974,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="60">
       <c r="A40" s="2">
         <v>5</v>
       </c>
@@ -4007,7 +4005,7 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
     </row>
-    <row r="41" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="60">
       <c r="A41" s="2">
         <v>5</v>
       </c>
@@ -4040,7 +4038,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="60">
       <c r="A42" s="2">
         <v>5</v>
       </c>
@@ -4071,7 +4069,7 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
     </row>
-    <row r="43" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="75">
       <c r="A43" s="2">
         <v>5</v>
       </c>
@@ -4106,7 +4104,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="60">
       <c r="A44" s="2">
         <v>5</v>
       </c>
@@ -4137,7 +4135,7 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="60">
       <c r="A45" s="2">
         <v>5</v>
       </c>
@@ -4161,7 +4159,7 @@
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="21"/>
-      <c r="J45" s="39"/>
+      <c r="J45" s="32"/>
       <c r="K45" s="22" t="s">
         <v>257</v>
       </c>
@@ -4172,7 +4170,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="45">
       <c r="A46" s="2">
         <v>5</v>
       </c>
@@ -4196,14 +4194,14 @@
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="21"/>
-      <c r="J46" s="39"/>
+      <c r="J46" s="32"/>
       <c r="K46" s="22" t="s">
         <v>258</v>
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
-    <row r="47" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="45">
       <c r="A47" s="2">
         <v>5</v>
       </c>
@@ -4227,14 +4225,14 @@
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="21"/>
-      <c r="J47" s="39"/>
+      <c r="J47" s="32"/>
       <c r="K47" s="22" t="s">
         <v>259</v>
       </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
     </row>
-    <row r="48" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="120">
       <c r="K48" s="24" t="s">
         <v>195</v>
       </c>
@@ -4248,7 +4246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4258,7 +4256,7 @@
       <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.5703125" style="4" customWidth="1"/>
@@ -4266,14 +4264,14 @@
     <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>138</v>
       </c>
@@ -4284,8 +4282,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="38" t="s">
         <v>140</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -4295,8 +4293,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+    <row r="4" spans="1:3">
+      <c r="A4" s="33"/>
       <c r="B4" s="19" t="s">
         <v>32</v>
       </c>
@@ -4304,8 +4302,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="33"/>
       <c r="B5" s="19" t="s">
         <v>29</v>
       </c>
@@ -4313,8 +4311,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+    <row r="6" spans="1:3">
+      <c r="A6" s="33"/>
       <c r="B6" s="19" t="s">
         <v>26</v>
       </c>
@@ -4322,8 +4320,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+    <row r="7" spans="1:3">
+      <c r="A7" s="33"/>
       <c r="B7" s="19" t="s">
         <v>135</v>
       </c>
@@ -4331,8 +4329,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+    <row r="8" spans="1:3">
+      <c r="A8" s="33"/>
       <c r="B8" s="19" t="s">
         <v>136</v>
       </c>
@@ -4340,8 +4338,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="33" t="s">
         <v>141</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -4351,8 +4349,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+    <row r="10" spans="1:3">
+      <c r="A10" s="33"/>
       <c r="B10" s="19" t="s">
         <v>17</v>
       </c>
@@ -4360,8 +4358,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+    <row r="11" spans="1:3">
+      <c r="A11" s="33"/>
       <c r="B11" s="19" t="s">
         <v>15</v>
       </c>
@@ -4369,8 +4367,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+    <row r="12" spans="1:3">
+      <c r="A12" s="33"/>
       <c r="B12" s="19" t="s">
         <v>12</v>
       </c>
@@ -4378,8 +4376,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+    <row r="13" spans="1:3">
+      <c r="A13" s="33"/>
       <c r="B13" s="19" t="s">
         <v>9</v>
       </c>
@@ -4387,8 +4385,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="33" t="s">
         <v>142</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -4398,8 +4396,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+    <row r="15" spans="1:3">
+      <c r="A15" s="33"/>
       <c r="B15" s="19" t="s">
         <v>5</v>
       </c>
@@ -4407,8 +4405,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+    <row r="16" spans="1:3">
+      <c r="A16" s="33"/>
       <c r="B16" s="19" t="s">
         <v>3</v>
       </c>
@@ -4416,8 +4414,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+    <row r="17" spans="1:3">
+      <c r="A17" s="33"/>
       <c r="B17" s="19" t="s">
         <v>2</v>
       </c>
@@ -4425,8 +4423,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+    <row r="18" spans="1:3">
+      <c r="A18" s="33"/>
       <c r="B18" s="19" t="s">
         <v>1</v>
       </c>
@@ -4434,8 +4432,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+    <row r="19" spans="1:3">
+      <c r="A19" s="33"/>
       <c r="B19" s="19" t="s">
         <v>0</v>
       </c>
@@ -4443,8 +4441,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="33" t="s">
         <v>143</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -4454,8 +4452,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+    <row r="21" spans="1:3">
+      <c r="A21" s="33"/>
       <c r="B21" s="19" t="s">
         <v>31</v>
       </c>
@@ -4463,8 +4461,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
+    <row r="22" spans="1:3">
+      <c r="A22" s="33"/>
       <c r="B22" s="19" t="s">
         <v>28</v>
       </c>
@@ -4472,8 +4470,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="33" t="s">
         <v>144</v>
       </c>
       <c r="B23" s="19" t="s">
@@ -4483,8 +4481,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+    <row r="24" spans="1:3">
+      <c r="A24" s="33"/>
       <c r="B24" s="19" t="s">
         <v>22</v>
       </c>
@@ -4492,8 +4490,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
+    <row r="25" spans="1:3">
+      <c r="A25" s="33"/>
       <c r="B25" s="19" t="s">
         <v>20</v>
       </c>
@@ -4501,8 +4499,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="33" t="s">
         <v>145</v>
       </c>
       <c r="B26" s="19" t="s">
@@ -4512,8 +4510,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
+    <row r="27" spans="1:3">
+      <c r="A27" s="33"/>
       <c r="B27" s="19" t="s">
         <v>14</v>
       </c>
@@ -4521,8 +4519,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
+    <row r="28" spans="1:3">
+      <c r="A28" s="33"/>
       <c r="B28" s="19" t="s">
         <v>11</v>
       </c>
@@ -4530,8 +4528,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
+    <row r="29" spans="1:3">
+      <c r="A29" s="33"/>
       <c r="B29" s="19" t="s">
         <v>8</v>
       </c>
@@ -4539,8 +4537,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="33" t="s">
         <v>146</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -4550,8 +4548,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
+    <row r="31" spans="1:3">
+      <c r="A31" s="33"/>
       <c r="B31" s="19" t="s">
         <v>4</v>
       </c>
@@ -4559,8 +4557,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
+    <row r="32" spans="1:3">
+      <c r="A32" s="33"/>
       <c r="B32" s="19" t="s">
         <v>131</v>
       </c>
@@ -4568,8 +4566,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
+    <row r="33" spans="1:3">
+      <c r="A33" s="33"/>
       <c r="B33" s="19" t="s">
         <v>132</v>
       </c>
@@ -4577,8 +4575,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
+    <row r="34" spans="1:3">
+      <c r="A34" s="33"/>
       <c r="B34" s="19" t="s">
         <v>133</v>
       </c>
@@ -4586,8 +4584,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="33" t="s">
         <v>147</v>
       </c>
       <c r="B35" s="19" t="s">
@@ -4597,8 +4595,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
+    <row r="36" spans="1:3">
+      <c r="A36" s="33"/>
       <c r="B36" s="19" t="s">
         <v>30</v>
       </c>
@@ -4606,8 +4604,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
+    <row r="37" spans="1:3">
+      <c r="A37" s="33"/>
       <c r="B37" s="19" t="s">
         <v>27</v>
       </c>
@@ -4615,8 +4613,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
+    <row r="38" spans="1:3">
+      <c r="A38" s="33"/>
       <c r="B38" s="19" t="s">
         <v>25</v>
       </c>
@@ -4624,8 +4622,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
+    <row r="39" spans="1:3">
+      <c r="A39" s="33"/>
       <c r="B39" s="19" t="s">
         <v>23</v>
       </c>
@@ -4633,8 +4631,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
+    <row r="40" spans="1:3">
+      <c r="A40" s="33"/>
       <c r="B40" s="19" t="s">
         <v>21</v>
       </c>
@@ -4642,8 +4640,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" s="33" t="s">
         <v>148</v>
       </c>
       <c r="B41" s="19" t="s">
@@ -4653,8 +4651,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
+    <row r="42" spans="1:3">
+      <c r="A42" s="33"/>
       <c r="B42" s="19" t="s">
         <v>269</v>
       </c>
@@ -4662,8 +4660,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
+    <row r="43" spans="1:3">
+      <c r="A43" s="33"/>
       <c r="B43" s="19" t="s">
         <v>13</v>
       </c>
@@ -4671,8 +4669,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="33"/>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A44" s="34"/>
       <c r="B44" s="20" t="s">
         <v>10</v>
       </c>
@@ -4700,14 +4698,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" style="8" bestFit="1" customWidth="1"/>
@@ -4715,7 +4713,7 @@
     <col min="4" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="25.5">
       <c r="A1" s="6">
         <v>1</v>
       </c>
@@ -4726,7 +4724,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="25.5">
       <c r="A2" s="6">
         <v>2</v>
       </c>
@@ -4737,7 +4735,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="38.25">
       <c r="A3" s="6">
         <v>3</v>
       </c>
@@ -4748,7 +4746,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="38.25">
       <c r="A4" s="6">
         <v>4</v>
       </c>
@@ -4759,7 +4757,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="25.5">
       <c r="A5" s="6">
         <v>5</v>
       </c>
@@ -4770,7 +4768,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="6">
         <v>6</v>
       </c>
@@ -4781,7 +4779,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="6">
         <v>7</v>
       </c>
@@ -4792,7 +4790,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="25.5">
       <c r="A8" s="6">
         <v>8</v>
       </c>
@@ -4803,7 +4801,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="6">
         <v>9</v>
       </c>
@@ -4814,7 +4812,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="38.25">
       <c r="A10" s="6">
         <v>10</v>
       </c>
@@ -4825,7 +4823,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="25.5">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -4836,7 +4834,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="6">
         <v>12</v>
       </c>
@@ -4847,7 +4845,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="25.5">
       <c r="A13" s="6">
         <v>13</v>
       </c>
@@ -4858,7 +4856,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="6">
         <v>14</v>
       </c>
@@ -4869,7 +4867,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="25.5">
       <c r="A15" s="6">
         <v>15</v>
       </c>
@@ -4880,7 +4878,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="25.5">
       <c r="A16" s="6">
         <v>16</v>
       </c>
@@ -4891,7 +4889,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="25.5">
       <c r="A17" s="6">
         <v>17</v>
       </c>
@@ -4902,7 +4900,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="25.5">
       <c r="A18" s="6">
         <v>18</v>
       </c>
@@ -4913,7 +4911,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="25.5">
       <c r="A19" s="6">
         <v>19</v>
       </c>
@@ -4924,7 +4922,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="25.5">
       <c r="A20" s="6">
         <v>20</v>
       </c>
@@ -4935,7 +4933,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="6">
         <v>21</v>
       </c>
@@ -4946,7 +4944,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="25.5">
       <c r="A22" s="6">
         <v>22</v>
       </c>
@@ -4957,7 +4955,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="6">
         <v>23</v>
       </c>
@@ -4968,7 +4966,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="25.5">
       <c r="A24" s="6">
         <v>24</v>
       </c>
@@ -4979,7 +4977,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="6">
         <v>25</v>
       </c>
@@ -4990,7 +4988,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="25.5">
       <c r="A26" s="6">
         <v>26</v>
       </c>
@@ -5001,7 +4999,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="25.5">
       <c r="A27" s="6">
         <v>27</v>
       </c>
@@ -5012,7 +5010,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="25.5">
       <c r="A28" s="6">
         <v>28</v>
       </c>
@@ -5023,7 +5021,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="25.5">
       <c r="A29" s="6">
         <v>29</v>
       </c>
@@ -5034,7 +5032,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="6">
         <v>30</v>
       </c>
@@ -5045,7 +5043,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="25.5">
       <c r="A31" s="6">
         <v>31</v>
       </c>
@@ -5056,7 +5054,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="25.5">
       <c r="A32" s="6">
         <v>32</v>
       </c>
@@ -5067,7 +5065,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="25.5">
       <c r="A33" s="6">
         <v>33</v>
       </c>
@@ -5078,7 +5076,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="25.5">
       <c r="A34" s="6">
         <v>34</v>
       </c>
@@ -5089,7 +5087,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="25.5">
       <c r="A35" s="6">
         <v>35</v>
       </c>
@@ -5100,7 +5098,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="6">
         <v>36</v>
       </c>
@@ -5111,7 +5109,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="25.5">
       <c r="A37" s="6">
         <v>37</v>
       </c>
@@ -5122,7 +5120,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="25.5">
       <c r="A38" s="6">
         <v>38</v>
       </c>
@@ -5133,7 +5131,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="6">
         <v>39</v>
       </c>
@@ -5144,7 +5142,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="6">
         <v>40</v>
       </c>
@@ -5155,7 +5153,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="25.5">
       <c r="A41" s="6">
         <v>41</v>
       </c>
@@ -5166,7 +5164,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="25.5">
       <c r="A42" s="6">
         <v>42</v>
       </c>
@@ -5177,7 +5175,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="25.5">
       <c r="A43" s="6">
         <v>43</v>
       </c>
@@ -5188,7 +5186,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="25.5">
       <c r="A44" s="6">
         <v>44</v>
       </c>
@@ -5199,7 +5197,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="25.5">
       <c r="A45" s="6">
         <v>45</v>
       </c>
@@ -5210,7 +5208,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="25.5">
       <c r="A46" s="6">
         <v>46</v>
       </c>
@@ -5228,16 +5226,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -5248,12 +5246,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="S13" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -5261,20 +5259,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="J28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="S29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36" s="1"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19">
       <c r="S45" s="1" t="s">
         <v>37</v>
       </c>
